--- a/image/organization.xlsx
+++ b/image/organization.xlsx
@@ -905,46 +905,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.3515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.62890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="49.0625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.6796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.6640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.36328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/organization.xlsx
+++ b/image/organization.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="238">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -460,10 +460,6 @@
   </si>
   <si>
     <t>Organization.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name used for the organization</t>
@@ -905,46 +901,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.69140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.53515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.3515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.62890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.51171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="48.6640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.36328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.0625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.6796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2466,19 +2462,19 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2542,16 +2538,16 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2559,7 +2555,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2582,19 +2578,19 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2643,7 +2639,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2661,7 +2657,7 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -2675,7 +2671,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2698,19 +2694,19 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2759,7 +2755,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2768,22 +2764,22 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AI16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AI16" t="s" s="2">
+      <c r="AJ16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -2791,7 +2787,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2814,19 +2810,19 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -2875,7 +2871,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -2884,22 +2880,22 @@
         <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AI17" t="s" s="2">
+      <c r="AJ17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -2907,7 +2903,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2930,17 +2926,17 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -2989,7 +2985,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3007,7 +3003,7 @@
         <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3021,7 +3017,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3044,19 +3040,19 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3105,7 +3101,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3117,13 +3113,13 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -3137,7 +3133,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3160,13 +3156,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3217,7 +3213,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3249,7 +3245,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3278,7 +3274,7 @@
         <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>99</v>
@@ -3331,7 +3327,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3363,11 +3359,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3389,10 +3385,10 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>99</v>
@@ -3447,7 +3443,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3479,7 +3475,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3505,14 +3501,14 @@
         <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3537,14 +3533,14 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3561,7 +3557,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3579,7 +3575,7 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -3593,7 +3589,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3616,17 +3612,17 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3675,7 +3671,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3690,10 +3686,10 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -3707,7 +3703,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3730,17 +3726,17 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3789,7 +3785,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3804,10 +3800,10 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -3821,7 +3817,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3844,17 +3840,17 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -3903,7 +3899,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3918,10 +3914,10 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -3935,7 +3931,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3958,17 +3954,17 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4017,7 +4013,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
